--- a/bin/mailmerge.xlsx
+++ b/bin/mailmerge.xlsx
@@ -20,15 +20,273 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="3">
-  <si>
-    <t xml:space="preserve">abc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2016CS10396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">xyz</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="89">
+  <si>
+    <t xml:space="preserve">Anubhav</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2016EE10835</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jannat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017PH10817</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Harshit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2014EE10459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tanya</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2015ME20768</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shivani</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2016ME20766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Neha</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017CH70296</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Priyanka</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017BB10025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R. Ktrishna Choudhary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2016CE10274</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Burma Vaishnavi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2016EE30520</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aditi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2015MT10586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Seema</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2014CE10936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manish</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2016CS10363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ashish</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017CE10089</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Samar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017CH10246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shivam</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017CS10376</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jakka Amarender Reddy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2014EE30514</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gaduputi Sumanth </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017EE10451</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pranjal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2013CS50702</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kota Pavan Sai Teja</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017ME10583</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Avinash</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2013EE10441</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aman</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2013ME10325</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vishal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2013ME10740</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tarun</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2013EE10505</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sidharth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2013EE10500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gaganpreet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2014EE10655</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prakhar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2014CS10207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Neelkanth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2014EE10520 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deepak</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2014CS50435</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2014CE10157</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Harshith</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mira</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2013BB50022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alisha</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2013CH70147</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pallavi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2014EE30525</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Narayani</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2015EE10045</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Krutika</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2015EE10619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Krishna</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ankush</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2014CE10316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chirag</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2012BB50049</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2014EE10453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chandan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2016ME10692</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Utkarsh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2016ME20755</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yash</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2015EE10691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shobit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2014EE10134</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yatish</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2016TT10834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uddesh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017CS10383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pradyumna</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017EE10469</t>
   </si>
 </sst>
 </file>
@@ -38,11 +296,12 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -58,6 +317,11 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -102,9 +366,13 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -124,31 +392,393 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B47"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.9795918367347"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.9183673469388"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="11.3418367346939"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+    <row r="1" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>1</v>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="B21" s="0" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="B23" s="0" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="B24" s="0" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="B25" s="0" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="B26" s="0" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="B27" s="0" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="B28" s="0" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="B29" s="0" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="B30" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="B31" s="0" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="B32" s="0" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="B33" s="0" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="B34" s="0" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="B35" s="0" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="B36" s="0" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="B37" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="B38" s="0" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="B39" s="0" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="B40" s="0" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="B41" s="0" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="B42" s="0" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="B43" s="0" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="B44" s="0" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="B45" s="0" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="B46" s="0" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="B47" s="0" t="s">
+        <v>88</v>
       </c>
     </row>
   </sheetData>
